--- a/E1NewSeleniumProject/data/testData.xlsx
+++ b/E1NewSeleniumProject/data/testData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\git\SeleniumE1\E1NewSeleniumProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253E6E1B-E59D-4F8B-9047-A218B585C8C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6CB39C-30FE-4DF5-8E42-F29C0ED06652}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ipl" sheetId="1" r:id="rId1"/>
+    <sheet name="Validcreds" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Teams</t>
   </si>
@@ -91,6 +92,21 @@
   </si>
   <si>
     <t>Shikhar D</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
   </si>
 </sst>
 </file>
@@ -106,7 +122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +132,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -132,9 +154,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,92 +449,129 @@
     <col min="2" max="2" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340A1DF8-A944-43DA-8E96-6BA12100527C}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/E1NewSeleniumProject/data/testData.xlsx
+++ b/E1NewSeleniumProject/data/testData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\git\SeleniumE1\E1NewSeleniumProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6CB39C-30FE-4DF5-8E42-F29C0ED06652}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575A3FB7-F0D2-4BEE-9741-F03A0CD34823}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ipl" sheetId="1" r:id="rId1"/>
     <sheet name="Validcreds" sheetId="2" r:id="rId2"/>
+    <sheet name="Invalidcreds" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Teams</t>
   </si>
@@ -107,6 +108,27 @@
   </si>
   <si>
     <t>manager</t>
+  </si>
+  <si>
+    <t>manager123</t>
+  </si>
+  <si>
+    <t>Admin@</t>
+  </si>
+  <si>
+    <t>manager@</t>
+  </si>
+  <si>
+    <t>fireflink</t>
+  </si>
+  <si>
+    <t>qspiders</t>
+  </si>
+  <si>
+    <t>testyantra</t>
+  </si>
+  <si>
+    <t>demo</t>
   </si>
 </sst>
 </file>
@@ -122,7 +144,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,8 +163,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -150,14 +178,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,7 +651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340A1DF8-A944-43DA-8E96-6BA12100527C}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -577,4 +679,79 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F81D874-3720-4179-A398-26F2D8B038A5}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>